--- a/entrada/Palma/SectoresNucleos_Palma.xlsx
+++ b/entrada/Palma/SectoresNucleos_Palma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aperillo\Documents\ABACO\Datos de entorno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tinot\eclipse-workspace\Proyecto-Salomon\entrada\Palma\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23127CF-28DA-4FFF-9579-1AC2FD96A6A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -134,16 +135,16 @@
     <t>Nucleos Palma</t>
   </si>
   <si>
-    <t>Palma Aproximación</t>
-  </si>
-  <si>
     <t>Ruta</t>
+  </si>
+  <si>
+    <t>APP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,392 +458,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
